--- a/data/trans_camb/IP19C09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C09-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 11,65</t>
+          <t>-1,68; 11,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,0</t>
+          <t>-7,09; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,67</t>
+          <t>0,0; 5,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,46</t>
+          <t>0,0; 15,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,92</t>
+          <t>-0,62; 6,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,71</t>
+          <t>-1,34; 4,82</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,11</t>
+          <t>-4,39; -0,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 0,4</t>
+          <t>-4,26; 0,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,51</t>
+          <t>-1,51; 2,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,83</t>
+          <t>-1,27; 2,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 0,84</t>
+          <t>-2,3; 0,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,04</t>
+          <t>-2,14; 1,09</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-87,86; 14,34</t>
+          <t>-87,27; 24,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-85,11; 31,87</t>
+          <t>-84,64; 43,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,93; 504,33</t>
+          <t>-68,72; 473,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-72,77; 491,44</t>
+          <t>-62,17; 440,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,68; 53,69</t>
+          <t>-70,97; 40,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,78; 65,45</t>
+          <t>-64,07; 65,52</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,34</t>
+          <t>-5,16; 2,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 7,83</t>
+          <t>-2,08; 8,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,84</t>
+          <t>-4,67; 1,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 6,38</t>
+          <t>-2,19; 6,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 1,21</t>
+          <t>-3,6; 1,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 5,36</t>
+          <t>-0,75; 5,79</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-71,5; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 227,77</t>
+          <t>-100,0; 159,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,49; 605,8</t>
+          <t>-35,51; 519,36</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,62</t>
+          <t>-3,21; 0,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,43</t>
+          <t>-2,61; 1,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,94</t>
+          <t>-1,24; 1,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,27</t>
+          <t>-0,43; 3,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,72</t>
+          <t>-1,67; 0,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,7</t>
+          <t>-1,21; 1,6</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-73,9; 49,8</t>
+          <t>-75,69; 36,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,81; 75,53</t>
+          <t>-64,1; 62,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,02; 290,39</t>
+          <t>-68,26; 261,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 498,18</t>
+          <t>-28,2; 446,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,79; 57,1</t>
+          <t>-57,54; 52,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,95; 108,21</t>
+          <t>-45,38; 95,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C09-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2,6</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>-1,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 11,67</t>
+          <t>0,0; 7,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,0</t>
+          <t>0,0; 11,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,93</t>
+          <t>-1,42; 11,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,69</t>
+          <t>-7,2; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 6,93</t>
+          <t>-0,38; 6,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,82</t>
+          <t>-1,33; 4,28</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>184,7%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-1,99</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-1,76</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; -0,01</t>
+          <t>-1,66; 2,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,39</t>
+          <t>-1,33; 2,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,58</t>
+          <t>-4,4; 0,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,84</t>
+          <t>-3,96; 0,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,65</t>
+          <t>-2,36; 0,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,09</t>
+          <t>-2,27; 0,99</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>28,5%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>42,91%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-57,1%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>-50,49%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>28,5%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>42,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-87,27; 24,1</t>
+          <t>-72,58; 433,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-84,64; 43,25</t>
+          <t>-64,02; 402,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,72; 473,88</t>
+          <t>-89,24; 35,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,17; 440,02</t>
+          <t>-84,06; 45,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,97; 40,74</t>
+          <t>-67,75; 50,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,07; 65,52</t>
+          <t>-66,63; 61,26</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-0,98</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>2,52</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,92</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,3</t>
+          <t>-4,65; 1,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 8,01</t>
+          <t>-2,38; 6,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 1,88</t>
+          <t>-5,29; 2,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 6,68</t>
+          <t>-2,37; 7,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 1,16</t>
+          <t>-3,5; 1,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 5,79</t>
+          <t>-0,96; 5,43</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-49,85%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>92,23%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-37,84%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>96,76%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-49,85%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>92,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,5; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-74,07; 950,16</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 159,9</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,51; 519,36</t>
+          <t>-47,58; 552,09</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-1,24</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>-0,65</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,45</t>
+          <t>-1,17; 1,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,31</t>
+          <t>-0,49; 3,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,9</t>
+          <t>-3,14; 0,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,02</t>
+          <t>-2,63; 1,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,8</t>
+          <t>-1,69; 0,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,6</t>
+          <t>-1,08; 1,51</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>16,93%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>82,66%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-40,5%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>-21,11%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>16,93%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>82,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-75,69; 36,29</t>
+          <t>-62,92; 313,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,1; 62,77</t>
+          <t>-37,11; 454,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,26; 261,97</t>
+          <t>-76,29; 40,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 446,67</t>
+          <t>-66,26; 83,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-57,54; 52,47</t>
+          <t>-60,39; 48,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,38; 95,04</t>
+          <t>-37,48; 94,41</t>
         </is>
       </c>
     </row>
